--- a/test3-function-control-options/filesize.xlsx
+++ b/test3-function-control-options/filesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="26860" windowHeight="17840" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="3580" windowWidth="26860" windowHeight="17840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="filesize.tsv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1356">
   <si>
     <t>Filename</t>
   </si>
@@ -4084,6 +4084,9 @@
   </si>
   <si>
     <t>1200 TOTAL</t>
+  </si>
+  <si>
+    <t>NOGIF MEAN</t>
   </si>
 </sst>
 </file>
@@ -4189,8 +4192,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4494,7 +4503,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="293">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4638,6 +4647,9 @@
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4781,6 +4793,9 @@
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5110,13 +5125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:S172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B143" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B132" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="D153" sqref="D153"/>
+      <selection pane="bottomRight" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14371,6 +14386,49 @@
         <v>56228857</v>
       </c>
     </row>
+    <row r="172" spans="1:19" s="1" customFormat="1">
+      <c r="A172" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="10">
+        <f>AVERAGE(C3:C38,C48:C87,C97:C136,C146:C149)</f>
+        <v>221933.6</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="10">
+        <f>AVERAGE(E3:E38,E48:E87,E97:E136,E146:E149)</f>
+        <v>247449.68333333332</v>
+      </c>
+      <c r="G172" s="10">
+        <f>AVERAGE(G3:G38,G48:G87,G97:G136,G146:G149)</f>
+        <v>244902.3</v>
+      </c>
+      <c r="I172" s="10">
+        <f>AVERAGE(I3:I38,I48:I87,I97:I136,I146:I149)</f>
+        <v>240079.35833333334</v>
+      </c>
+      <c r="K172" s="10">
+        <f>AVERAGE(K3:K38,K48:K87,K97:K136,K146:K149)</f>
+        <v>242776.21666666667</v>
+      </c>
+      <c r="M172" s="10">
+        <f>AVERAGE(M3:M38,M48:M87,M97:M136,M146:M149)</f>
+        <v>243977.30833333332</v>
+      </c>
+      <c r="O172" s="10">
+        <f>AVERAGE(O3:O38,O48:O87,O97:O136,O146:O149)</f>
+        <v>250124.22500000001</v>
+      </c>
+      <c r="Q172" s="10">
+        <f>AVERAGE(Q3:Q38,Q48:Q87,Q97:Q136,Q146:Q149)</f>
+        <v>250123.55833333332</v>
+      </c>
+      <c r="S172" s="10">
+        <f>AVERAGE(S3:S38,S48:S87,S97:S136,S146:S149)</f>
+        <v>283499.43333333335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
